--- a/mysql/massive_query.xlsx
+++ b/mysql/massive_query.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Olivier\Projets Java\Repositories-GitHub-Main\spring-boot-sla-rules\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Olivier\Projets Java\Repositories-GitHub-Main\spring-boot-sla-rules\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
     <t>2016-04-16</t>
   </si>
   <si>
-    <t>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('$DEBTOR', '$COUNTRY', '$CURRENCY', '$SELLER', '$DATE', $NUM);</t>
+    <t>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('$DEBTOR', '$COUNTRY', '$CURRENCY', '$SELLER', '$DATE', $NUM);</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A2), "$COUNTRY", B2), "$CURRENCY", C2), "$SELLER", D2), "$DATE",E2), "$NUM", F2)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
       </c>
       <c r="G3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A3), "$COUNTRY", B3), "$CURRENCY", C3), "$SELLER", D3), "$DATE",E3), "$NUM", F3)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A4), "$COUNTRY", B4), "$CURRENCY", C4), "$SELLER", D4), "$DATE",E4), "$NUM", F4)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" ref="G68:G114" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A68), "$COUNTRY", B68), "$CURRENCY", C68), "$SELLER", D68), "$DATE",E68), "$NUM", F68)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_1', '2016-03-20', 1);</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" ref="G115:G178" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A115), "$COUNTRY", B115), "$CURRENCY", C115), "$SELLER", D115), "$DATE",E115), "$NUM", F115)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" ref="G179:G198" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A179), "$COUNTRY", B179), "$CURRENCY", C179), "$SELLER", D179), "$DATE",E179), "$NUM", F179)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="G194" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" ref="G199:G208" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A199), "$COUNTRY", B199), "$CURRENCY", C199), "$SELLER", D199), "$DATE",E199), "$NUM", F199)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="G201" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="G202" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G203" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="G204" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G205" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="G206" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="G207" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_1', 'FR', 'EUR', 'Seller_2', '2016-10-09', 2);</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="G208" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="G209" t="str">
         <f t="shared" ref="G209:G272" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A209), "$COUNTRY", B209), "$CURRENCY", C209), "$SELLER", D209), "$DATE",E209), "$NUM", F209)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="G210" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="G211" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="G212" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="G213" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="G214" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="G215" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="G216" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="G217" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G218" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="G219" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="G220" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="G221" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="G222" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="G223" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="G224" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="G225" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="G226" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="G227" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="G228" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="G229" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="G230" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="G231" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="G232" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G233" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="G234" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="G235" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="G236" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="G237" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="G238" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G239" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="G240" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="G241" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="G242" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="G243" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="G244" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="G245" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="G246" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="G247" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G248" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="G249" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="G250" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="G251" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="G252" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="G253" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="G254" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="G255" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="G256" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="G257" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="G258" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="G259" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="G260" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="G261" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="G262" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="G263" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="G264" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="G265" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="G266" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="G267" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="G268" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="G269" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="G270" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="G271" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="G272" t="str">
         <f t="shared" si="5"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="G273" t="str">
         <f t="shared" ref="G273:G336" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A273), "$COUNTRY", B273), "$CURRENCY", C273), "$SELLER", D273), "$DATE",E273), "$NUM", F273)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="G274" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="G275" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="G276" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="G277" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="G278" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="G279" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="G280" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="G281" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="G282" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="G283" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="G284" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="G285" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="G286" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="G287" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="G288" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="G289" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="G290" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="G291" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="G292" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="G293" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="G294" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="G295" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="G296" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="G297" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="G298" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="G299" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="G300" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="G301" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="G302" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="G303" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="G304" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="G305" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="G306" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="G307" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="G308" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="G309" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="G310" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="G311" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="G312" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="G313" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="G314" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="G315" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="G316" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="G317" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="G318" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="G319" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="G320" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="G321" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="G322" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="G323" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="G324" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="G325" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="G326" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="G327" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="G328" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="G329" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="G330" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="G331" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="G332" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="G333" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="G334" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="G335" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="G336" t="str">
         <f t="shared" si="6"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="G337" t="str">
         <f t="shared" ref="G337:G372" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A337), "$COUNTRY", B337), "$CURRENCY", C337), "$SELLER", D337), "$DATE",E337), "$NUM", F337)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="G338" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="G339" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="G340" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="G341" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="G342" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="G343" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="G344" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="G345" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="G346" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="G347" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="G348" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="G349" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="G350" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="G351" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="G352" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="G353" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="G354" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="G355" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="G356" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="G357" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="G358" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="G359" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="G360" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="G361" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="G362" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="G363" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="G364" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="G365" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="G366" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="G367" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="G368" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="G369" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="G370" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="G371" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="G372" t="str">
         <f t="shared" si="7"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'UK', 'GBP', 'Seller_1', '2016-10-17', 3);</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="G373" t="str">
         <f t="shared" ref="G373" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A373), "$COUNTRY", B373), "$CURRENCY", C373), "$SELLER", D373), "$DATE",E373), "$NUM", F373)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="G374" t="str">
         <f t="shared" ref="G374:G375" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A374), "$COUNTRY", B374), "$CURRENCY", C374), "$SELLER", D374), "$DATE",E374), "$NUM", F374)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="G375" t="str">
         <f t="shared" si="9"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="G376" t="str">
         <f t="shared" ref="G376:G439" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A376), "$COUNTRY", B376), "$CURRENCY", C376), "$SELLER", D376), "$DATE",E376), "$NUM", F376)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="G377" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="G378" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="G379" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="G380" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="G381" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="G382" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="G383" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="G384" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="G385" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="G386" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="G387" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="G388" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="G389" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="G390" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="G391" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="G392" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="G393" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="G394" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="G395" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="G396" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="G397" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="G398" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="G399" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="G400" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="G401" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="G402" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="G403" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="G404" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="G405" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="G406" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="G407" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="G408" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="G409" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="G410" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="G411" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="G412" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="G413" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="G414" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="G415" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="G416" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="G417" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="G418" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="G419" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="G420" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="G421" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="G422" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="G423" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="G424" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="G425" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="G426" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="G427" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="G428" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -10745,7 +10745,7 @@
       </c>
       <c r="G429" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="G430" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="G431" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="G432" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="G433" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="G434" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="G435" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="G436" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="G437" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="G438" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="G439" t="str">
         <f t="shared" si="10"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="G440" t="str">
         <f t="shared" ref="G440:G503" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A440), "$COUNTRY", B440), "$CURRENCY", C440), "$SELLER", D440), "$DATE",E440), "$NUM", F440)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="G441" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="G442" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="G443" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="G444" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="G445" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="G446" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="G447" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="G448" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="G449" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="G450" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="G451" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="G452" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="G453" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="G454" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="G455" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="G456" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="G457" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="G458" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="G459" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="G460" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="G461" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="G462" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="G463" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="G464" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="G465" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="G466" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="G467" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="G468" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="G469" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="G470" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="G471" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="G472" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="G473" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="G474" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="G475" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="G476" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -11897,7 +11897,7 @@
       </c>
       <c r="G477" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="G478" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G479" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="G480" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -11993,7 +11993,7 @@
       </c>
       <c r="G481" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="G482" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="G483" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="G484" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="G485" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -12113,7 +12113,7 @@
       </c>
       <c r="G486" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="G487" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="G488" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="G489" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="G490" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="G491" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="G492" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="G493" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="G494" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="G495" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="G496" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="G497" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="G498" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="G499" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="G500" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="G501" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="G502" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="G503" t="str">
         <f t="shared" si="11"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="G504" t="str">
         <f t="shared" ref="G504:G542" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$1, "$DEBTOR", A504), "$COUNTRY", B504), "$CURRENCY", C504), "$SELLER", D504), "$DATE",E504), "$NUM", F504)</f>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G505" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="G506" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="G507" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="G508" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="G509" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -12689,7 +12689,7 @@
       </c>
       <c r="G510" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="G511" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="G512" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="G513" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="G514" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="G515" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="G516" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="G517" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="G518" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
@@ -12905,7 +12905,7 @@
       </c>
       <c r="G519" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="G520" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="G521" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="G522" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="G523" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="G524" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="G525" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="G526" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="G527" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="G528" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="G529" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -13169,7 +13169,7 @@
       </c>
       <c r="G530" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="G531" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="G532" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="G533" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="G534" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="G535" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="G536" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="G537" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="G538" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="G539" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
       </c>
       <c r="G540" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="G541" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
       </c>
       <c r="G542" t="str">
         <f t="shared" si="12"/>
-        <v>insert into ENTITY(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
+        <v>insert into invoice(DEBTOR, COUNTRY, CURRENCY, SELLER, INVOICE_DATE, NUMBER_OF_INVOICES) values ('Debtor_2', 'FR', 'GBP', 'Seller_2', '2016-04-16', 4);</v>
       </c>
     </row>
   </sheetData>
